--- a/Feasibility Demo Documentation/Gnatt Chart and Risk Assessment.xlsx
+++ b/Feasibility Demo Documentation/Gnatt Chart and Risk Assessment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Unreal Engine Projects\DissertationProject\DissertationProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Unity Engine Projects\DissertationProject\DissertationProjectUnity\Feasibility Demo Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55920E41-37B2-406E-A997-161E9160EBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBC06BD-FB35-4461-97B6-B066EDB03AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9329D326-5F1E-44FC-A100-44DBE7C981E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9329D326-5F1E-44FC-A100-44DBE7C981E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Gnatt" sheetId="1" r:id="rId1"/>
@@ -410,12 +410,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -425,30 +442,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B753D9D-A6F6-469A-9CC4-792D105D0457}">
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,37 +802,37 @@
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -899,10 +898,10 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -927,63 +926,63 @@
       <c r="X3" s="1"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="E7" s="11" t="s">
+      <c r="B7" s="14"/>
+      <c r="E7" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="E8" s="11" t="s">
+      <c r="B8" s="14"/>
+      <c r="E8" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="E9" s="11" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="E9" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1008,64 +1007,62 @@
       <c r="X10" s="1"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="F11" s="6" t="s">
+      <c r="B11" s="14"/>
+      <c r="F11" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="K12" s="6" t="s">
+      <c r="B12" s="14"/>
+      <c r="K12" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="I13" s="11" t="s">
+      <c r="B13" s="14"/>
+      <c r="I13" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="O14" s="6" t="s">
+      <c r="B14" s="14"/>
+      <c r="O14" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="P14" s="6"/>
+      <c r="P14" s="14"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="I15" s="12"/>
-      <c r="R15" s="4" t="s">
+      <c r="B15" s="16"/>
+      <c r="R15" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="S15" s="5"/>
+      <c r="S15" s="16"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="I16" s="12"/>
+      <c r="B16" s="16"/>
       <c r="Q16" s="3" t="s">
         <v>52</v>
       </c>
@@ -1073,14 +1070,14 @@
       <c r="T16" s="2"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1105,148 +1102,124 @@
       <c r="X18" s="1"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="P19" s="6" t="s">
+      <c r="B19" s="14"/>
+      <c r="P19" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="Q19" s="6"/>
+      <c r="Q19" s="14"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="P20" s="6" t="s">
+      <c r="B20" s="14"/>
+      <c r="P20" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="Q20" s="6"/>
+      <c r="Q20" s="14"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="P21" s="6" t="s">
+      <c r="B21" s="14"/>
+      <c r="P21" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="Q21" s="6"/>
+      <c r="Q21" s="14"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="I23" s="6" t="s">
+      <c r="B23" s="14"/>
+      <c r="M23" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J23" s="6"/>
+      <c r="N23" s="14"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="K24" s="6" t="s">
+      <c r="B24" s="14"/>
+      <c r="M24" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="L24" s="6"/>
+      <c r="N24" s="14"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="M25" s="6" t="s">
+      <c r="B25" s="14"/>
+      <c r="M25" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N25" s="6"/>
+      <c r="N25" s="14"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="O26" s="6" t="s">
+      <c r="B26" s="14"/>
+      <c r="O26" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="P26" s="6"/>
+      <c r="P26" s="14"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="R27" s="6" t="s">
+      <c r="B27" s="14"/>
+      <c r="R27" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="S27" s="6"/>
+      <c r="S27" s="14"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="S28" s="6" t="s">
+      <c r="B28" s="14"/>
+      <c r="S28" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="T28" s="6"/>
+      <c r="T28" s="14"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="T29" s="6" t="s">
+      <c r="B29" s="14"/>
+      <c r="T29" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="U29" s="6"/>
+      <c r="U29" s="14"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="U30" s="6" t="s">
+      <c r="B30" s="14"/>
+      <c r="U30" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="U30:W30"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="K1:X1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A19:B19"/>
@@ -1255,18 +1228,42 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="K1:X1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="T29:U29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1277,7 +1274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FAE31D2-F7BE-4885-8CB4-6533306D7794}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1290,154 +1287,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="13" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="11">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="11">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="6">
         <v>3</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="11">
+      <c r="B4" s="11"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="6">
         <v>4</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="11">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="6">
         <v>4</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="11">
+      <c r="B6" s="12"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="6">
         <v>6</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="11">
+      <c r="B7" s="11"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="6">
         <v>5</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="11">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="6">
         <v>5</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="11">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="6">
         <v>4</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="11">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="6">
         <v>5</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="11">
+      <c r="B11" s="12"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="6">
         <v>6</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="A15" s="9"/>
       <c r="B15" t="s">
         <v>68</v>
       </c>
@@ -1446,7 +1443,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
+      <c r="A16" s="7"/>
       <c r="B16" t="s">
         <v>69</v>
       </c>
@@ -1455,7 +1452,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="8"/>
       <c r="B17" t="s">
         <v>71</v>
       </c>
